--- a/data/trans_dic/P43E-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P43E-Provincia-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1820515976712604</v>
+        <v>0.1804169619290334</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1854804541697852</v>
+        <v>0.1848430374553033</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1058800772775358</v>
+        <v>0.1117625350390006</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3105944005399032</v>
+        <v>0.3125075323271134</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3116539455999335</v>
+        <v>0.3129201285294521</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1871449916222604</v>
+        <v>0.1882841504523084</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1727508014778986</v>
+        <v>0.1707927037779353</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1127645862391261</v>
+        <v>0.1096378641518398</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2117005356387621</v>
+        <v>0.2097037034491848</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.259091091473617</v>
+        <v>0.2644354115690687</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1836657411197326</v>
+        <v>0.1856115233600948</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3072645311216763</v>
+        <v>0.3087309203715918</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1932701210784233</v>
+        <v>0.1913784684453782</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02873944982533825</v>
+        <v>0.02562768772491459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1255290250324971</v>
+        <v>0.1277028386686594</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3251367438451813</v>
+        <v>0.3238594751329643</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08775188248188286</v>
+        <v>0.08480632532575311</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2297098030729325</v>
+        <v>0.2274899572093993</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2030113075758994</v>
+        <v>0.2109860098679238</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08148911977212014</v>
+        <v>0.08382292573507089</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1594097736767805</v>
+        <v>0.1597649518160904</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3168918173517373</v>
+        <v>0.3193006031020867</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1673445063530225</v>
+        <v>0.1664870444816429</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2512112824586247</v>
+        <v>0.2532606701531449</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1487882414683087</v>
+        <v>0.1462933036178961</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05973797306274875</v>
+        <v>0.06269658325087665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1913872291992298</v>
+        <v>0.1907060407671803</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3034599082068166</v>
+        <v>0.2939789648520015</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2018918265551006</v>
+        <v>0.1941843732595427</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3324075782749205</v>
+        <v>0.3316569650916569</v>
       </c>
     </row>
     <row r="19">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1292858143784607</v>
+        <v>0.1283143644453564</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1580818862652575</v>
+        <v>0.1555714284749626</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1285395949770553</v>
+        <v>0.1272773350611742</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2736130287201441</v>
+        <v>0.2711277886384805</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3754953018635111</v>
+        <v>0.3761044800919518</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2553229328483617</v>
+        <v>0.2526484056785857</v>
       </c>
     </row>
     <row r="22">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2003329791979936</v>
+        <v>0.1989981002561921</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.181872547607217</v>
+        <v>0.1823361458359403</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3698127476032936</v>
+        <v>0.3678687921013196</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2918701376111859</v>
+        <v>0.2864402442925556</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2651276463458457</v>
+        <v>0.2635112985565375</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4583073740900541</v>
+        <v>0.4612316457351221</v>
       </c>
     </row>
     <row r="25">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1789143206756981</v>
+        <v>0.1800663056835534</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1447267217597031</v>
+        <v>0.1392231635100023</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1091277042704913</v>
+        <v>0.1084903539740542</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2530387842328275</v>
+        <v>0.2567832828332282</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2142816340684573</v>
+        <v>0.2120256245780007</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1824143363748776</v>
+        <v>0.1795530275593175</v>
       </c>
     </row>
     <row r="28">
@@ -1030,7 +1030,7 @@
         <v>0.1639238534107192</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.2455428421916127</v>
+        <v>0.2455428421916128</v>
       </c>
     </row>
     <row r="29">
@@ -1041,13 +1041,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.210549895992461</v>
+        <v>0.2125407918798269</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1485794888341993</v>
+        <v>0.1474904516673259</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2281409855702751</v>
+        <v>0.2281909472224918</v>
       </c>
     </row>
     <row r="30">
@@ -1058,13 +1058,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2493403090201847</v>
+        <v>0.2486832966956492</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1817239435170573</v>
+        <v>0.1806743147308115</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2638892117461692</v>
+        <v>0.2636740845077846</v>
       </c>
     </row>
     <row r="31">
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>36366</v>
+        <v>36040</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>37035</v>
+        <v>36907</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19318</v>
+        <v>20392</v>
       </c>
     </row>
     <row r="7">
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>62044</v>
+        <v>62426</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>62227</v>
+        <v>62480</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34145</v>
+        <v>34353</v>
       </c>
     </row>
     <row r="8">
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>63916</v>
+        <v>63191</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>42844</v>
+        <v>41656</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>51177</v>
+        <v>50694</v>
       </c>
     </row>
     <row r="11">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>95860</v>
+        <v>97838</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>69783</v>
+        <v>70522</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>74279</v>
+        <v>74633</v>
       </c>
     </row>
     <row r="12">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36631</v>
+        <v>36273</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7132</v>
+        <v>6360</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20151</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="15">
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>61624</v>
+        <v>61382</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21777</v>
+        <v>21046</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36875</v>
+        <v>36519</v>
       </c>
     </row>
     <row r="16">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>51287</v>
+        <v>53302</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>21614</v>
+        <v>22233</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>33422</v>
+        <v>33497</v>
       </c>
     </row>
     <row r="19">
@@ -1436,13 +1436,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>80057</v>
+        <v>80666</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>44386</v>
+        <v>44159</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>52669</v>
+        <v>53099</v>
       </c>
     </row>
     <row r="20">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>20334</v>
+        <v>19993</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5051</v>
+        <v>5302</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12356</v>
+        <v>12312</v>
       </c>
     </row>
     <row r="23">
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41472</v>
+        <v>40176</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17072</v>
+        <v>16420</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21460</v>
+        <v>21412</v>
       </c>
     </row>
     <row r="24">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>19467</v>
+        <v>19321</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9770</v>
+        <v>9614</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11430</v>
+        <v>11318</v>
       </c>
     </row>
     <row r="27">
@@ -1580,13 +1580,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>41199</v>
+        <v>40825</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23206</v>
+        <v>23244</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22703</v>
+        <v>22465</v>
       </c>
     </row>
     <row r="28">
@@ -1635,13 +1635,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>86347</v>
+        <v>85771</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>74753</v>
+        <v>74944</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>145751</v>
+        <v>144984</v>
       </c>
     </row>
     <row r="31">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>125801</v>
+        <v>123460</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>108973</v>
+        <v>108308</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>180628</v>
+        <v>181781</v>
       </c>
     </row>
     <row r="32">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>92831</v>
+        <v>93429</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>72838</v>
+        <v>70069</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>29194</v>
+        <v>29024</v>
       </c>
     </row>
     <row r="35">
@@ -1724,13 +1724,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>131291</v>
+        <v>133234</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>107844</v>
+        <v>106709</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>48801</v>
+        <v>48035</v>
       </c>
     </row>
     <row r="36">
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>473532</v>
+        <v>478010</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>319992</v>
+        <v>317646</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>367196</v>
+        <v>367276</v>
       </c>
     </row>
     <row r="39">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>560773</v>
+        <v>559295</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>391374</v>
+        <v>389114</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>424733</v>
+        <v>424387</v>
       </c>
     </row>
     <row r="40">
